--- a/quiz.xlsx
+++ b/quiz.xlsx
@@ -5815,7 +5815,7 @@
         <v>531</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116">

--- a/quiz.xlsx
+++ b/quiz.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="905">
   <si>
     <t>NUM</t>
   </si>
@@ -2762,6 +2762,9 @@
   </si>
   <si>
     <t>URLLC (Ultra-Reliable Low Latency Communications)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> V2X (Vehicle-to-Everything)</t>
   </si>
   <si>
     <t xml:space="preserve"> The ITU's IMT-2020 vision for 5G sets a target for air interface latency. What is
@@ -7468,7 +7471,7 @@
         <v>863</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="G187" s="4" t="s">
         <v>23</v>
@@ -7479,19 +7482,19 @@
         <v>187.0</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="G188" s="4" t="s">
         <v>23</v>
@@ -7502,19 +7505,19 @@
         <v>188.0</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G189" s="4" t="s">
         <v>12</v>
@@ -7525,19 +7528,19 @@
         <v>189.0</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="G190" s="4" t="s">
         <v>12</v>
@@ -7548,19 +7551,19 @@
         <v>190.0</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="G191" s="4" t="s">
         <v>12</v>
@@ -7571,16 +7574,16 @@
         <v>191.0</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>818</v>
@@ -7594,19 +7597,19 @@
         <v>192.0</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>817</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="G193" s="4" t="s">
         <v>12</v>
@@ -7617,19 +7620,19 @@
         <v>193.0</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="G194" s="4" t="s">
         <v>12</v>
@@ -7640,10 +7643,10 @@
         <v>194.0</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>861</v>
@@ -7652,7 +7655,7 @@
         <v>863</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="G195" s="4" t="s">
         <v>12</v>
@@ -7663,19 +7666,19 @@
         <v>195.0</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="G196" s="4" t="s">
         <v>12</v>
